--- a/data/trans_dic/P1805_2016_2023-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P1805_2016_2023-Clase-trans_dic.xlsx
@@ -618,13 +618,13 @@
         <v>0.04326133722916455</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.05453675996329469</v>
+        <v>0.05453675996329468</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.03220116860129668</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>0.04677587242092035</v>
+        <v>0.04677587242092034</v>
       </c>
     </row>
     <row r="5">
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.01174799432975033</v>
+        <v>0.01161180207157183</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.02342345847288989</v>
+        <v>0.02438512879172514</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.02391127311276043</v>
+        <v>0.02567786035074244</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.03745484702248941</v>
+        <v>0.03829092275657361</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.0215418891941937</v>
+        <v>0.02044212385677522</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.03458505637419976</v>
+        <v>0.03452479442507287</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.03917800154212592</v>
+        <v>0.03905734039728938</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.06749338881392568</v>
+        <v>0.0698267048659426</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.06728559575720888</v>
+        <v>0.06917959635794503</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.07611067292059498</v>
+        <v>0.07816054900029064</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.04714000743554172</v>
+        <v>0.04576626696752233</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.06291532515339374</v>
+        <v>0.06317980299450171</v>
       </c>
     </row>
     <row r="7">
@@ -694,7 +694,7 @@
         <v>0.01929911621250575</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.03460653621857127</v>
+        <v>0.03460653621857126</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>0.02271227202601388</v>
@@ -717,22 +717,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.007710132351565875</v>
+        <v>0.009174510640769074</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.02180662942791609</v>
+        <v>0.02115851942585217</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.009429607053823418</v>
+        <v>0.01000617285770117</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.04035300385829274</v>
+        <v>0.0422340411926647</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.01148724796630521</v>
+        <v>0.01147288266036521</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.03334625888025146</v>
+        <v>0.03522456030317157</v>
       </c>
     </row>
     <row r="9">
@@ -743,22 +743,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.0370373082926688</v>
+        <v>0.0382680824371357</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.05813003663345234</v>
+        <v>0.05706561268033302</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.04803857985760946</v>
+        <v>0.04604633146405824</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.08210119484681538</v>
+        <v>0.08161307618785144</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.03509958503345367</v>
+        <v>0.03658173528701254</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.06037467214626971</v>
+        <v>0.06125618813115019</v>
       </c>
     </row>
     <row r="10">
@@ -776,7 +776,7 @@
         <v>0.02425842103775877</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.02865862074873813</v>
+        <v>0.02865862074873812</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>0.06655875638283518</v>
@@ -799,22 +799,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01315030726327163</v>
+        <v>0.01303020263620025</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.01541278676576133</v>
+        <v>0.01503175421764318</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.03070423265817095</v>
+        <v>0.03208596000717917</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.0202704787929723</v>
+        <v>0.02171518745997449</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.02171312890123649</v>
+        <v>0.02113273937329743</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.01949611861089561</v>
+        <v>0.02054250757421539</v>
       </c>
     </row>
     <row r="12">
@@ -825,22 +825,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.04146439694489315</v>
+        <v>0.03954028879591164</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.04962650808241003</v>
+        <v>0.05059589109638932</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1208852732807712</v>
+        <v>0.118371148399081</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.06465868200888128</v>
+        <v>0.06791139773964694</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.05303781262111371</v>
+        <v>0.05057753015843047</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.0470696963169657</v>
+        <v>0.04940772791450001</v>
       </c>
     </row>
     <row r="13">
@@ -870,7 +870,7 @@
         <v>0.02436998658228064</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>0.03664467424285563</v>
+        <v>0.03664467424285565</v>
       </c>
     </row>
     <row r="14">
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.006388376845843208</v>
+        <v>0.006983663928556704</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.02110769117763766</v>
+        <v>0.02092491565482727</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.02798239998856748</v>
+        <v>0.02950646764768392</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.0335764218982707</v>
+        <v>0.03330512063602283</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.01765118187756731</v>
+        <v>0.01801282589778994</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.02889191125478545</v>
+        <v>0.02893761003102936</v>
       </c>
     </row>
     <row r="15">
@@ -907,22 +907,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.0212021913160147</v>
+        <v>0.02124717101036306</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.04563847309054192</v>
+        <v>0.0462488501118047</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.0574421796834854</v>
+        <v>0.0580329014975236</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.05719428958558963</v>
+        <v>0.05718792956127376</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.03252194844414081</v>
+        <v>0.03256600097710194</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.04615403146725112</v>
+        <v>0.04576453983426101</v>
       </c>
     </row>
     <row r="16">
@@ -963,22 +963,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.008238525584814664</v>
+        <v>0.008166460423418865</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.009300442296937906</v>
+        <v>0.009094892790928923</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.02533126598056674</v>
+        <v>0.02550097419078688</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.02408699153629809</v>
+        <v>0.02384975037100201</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.01981595027436208</v>
+        <v>0.02006134757026542</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.0209343487224549</v>
+        <v>0.02045992893238916</v>
       </c>
     </row>
     <row r="18">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.03016826032294479</v>
+        <v>0.02982257027113393</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.03471411827888536</v>
+        <v>0.03455752657174367</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.05635612357827437</v>
+        <v>0.05640711716410113</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.04520187275176343</v>
+        <v>0.04346261286781351</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.03828217761000362</v>
+        <v>0.0400255439480009</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.03610942175256569</v>
+        <v>0.03581788144279343</v>
       </c>
     </row>
     <row r="19">
@@ -1045,22 +1045,22 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.009981378657163951</v>
+        <v>0.009949931682897184</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.02751690619662759</v>
+        <v>0.0250548312017305</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.02161265887725364</v>
+        <v>0.02190618605395556</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.01974631074890047</v>
+        <v>0.01937505174196305</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.02136149668037328</v>
+        <v>0.02111997437983329</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.02533284921946028</v>
+        <v>0.0257369062731145</v>
       </c>
     </row>
     <row r="21">
@@ -1071,22 +1071,22 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.04745671973636097</v>
+        <v>0.04423764473093868</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.1315483308649314</v>
+        <v>0.1240030517039535</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.04410168306651851</v>
+        <v>0.04486291503342383</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.04873139069294724</v>
+        <v>0.04792869529114061</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.03933805784097868</v>
+        <v>0.04064841269621745</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.05605914201629959</v>
+        <v>0.05498863472601472</v>
       </c>
     </row>
     <row r="22">
@@ -1116,7 +1116,7 @@
         <v>0.02775665789559053</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>0.03710989399247404</v>
+        <v>0.03710989399247405</v>
       </c>
     </row>
     <row r="23">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.01357998496731948</v>
+        <v>0.0142126427023588</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.02624128048666478</v>
+        <v>0.02592469845924755</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.03067176788414066</v>
+        <v>0.0308380409150381</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.03544824469354085</v>
+        <v>0.03563286278931014</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.0238413894380589</v>
+        <v>0.02371846430359717</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.0327072907374835</v>
+        <v>0.03275761102570722</v>
       </c>
     </row>
     <row r="24">
@@ -1153,22 +1153,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.02320449997334012</v>
+        <v>0.02313062243057569</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.0408683088191629</v>
+        <v>0.04028836566643827</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.04359486256917056</v>
+        <v>0.04379206741205278</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.04806147991899122</v>
+        <v>0.04816529499294864</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.03214280962045837</v>
+        <v>0.0318151597287403</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.04268951029428062</v>
+        <v>0.04222723581321604</v>
       </c>
     </row>
     <row r="25">
@@ -1357,22 +1357,22 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>5041</v>
+        <v>4983</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>12897</v>
+        <v>13427</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>8299</v>
+        <v>8912</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>18293</v>
+        <v>18702</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>16720</v>
+        <v>15866</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>35935</v>
+        <v>35872</v>
       </c>
     </row>
     <row r="7">
@@ -1383,22 +1383,22 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>16811</v>
+        <v>16759</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>37163</v>
+        <v>38448</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>23352</v>
+        <v>24009</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>37173</v>
+        <v>38174</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>36588</v>
+        <v>35521</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>65371</v>
+        <v>65646</v>
       </c>
     </row>
     <row r="8">
@@ -1465,22 +1465,22 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>2908</v>
+        <v>3461</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>10537</v>
+        <v>10224</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>3510</v>
+        <v>3725</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>17075</v>
+        <v>17871</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>8610</v>
+        <v>8599</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>30224</v>
+        <v>31926</v>
       </c>
     </row>
     <row r="11">
@@ -1491,22 +1491,22 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>13971</v>
+        <v>14436</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>28089</v>
+        <v>27575</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>17883</v>
+        <v>17142</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>34741</v>
+        <v>34534</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>26307</v>
+        <v>27418</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>54721</v>
+        <v>55520</v>
       </c>
     </row>
     <row r="12">
@@ -1573,22 +1573,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>6863</v>
+        <v>6801</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>7269</v>
+        <v>7089</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>5101</v>
+        <v>5330</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>3801</v>
+        <v>4072</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>14939</v>
+        <v>14540</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>12850</v>
+        <v>13540</v>
       </c>
     </row>
     <row r="15">
@@ -1599,22 +1599,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>21641</v>
+        <v>20637</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>23404</v>
+        <v>23862</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>20082</v>
+        <v>19664</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>12123</v>
+        <v>12733</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>36492</v>
+        <v>34799</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>31024</v>
+        <v>32565</v>
       </c>
     </row>
     <row r="16">
@@ -1681,22 +1681,22 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>7344</v>
+        <v>8029</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>23891</v>
+        <v>23684</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>23110</v>
+        <v>24369</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>28896</v>
+        <v>28663</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>34870</v>
+        <v>35585</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>57566</v>
+        <v>57657</v>
       </c>
     </row>
     <row r="19">
@@ -1707,22 +1707,22 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>24375</v>
+        <v>24427</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>51656</v>
+        <v>52346</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>47440</v>
+        <v>47928</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>49222</v>
+        <v>49217</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>64248</v>
+        <v>64335</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>91960</v>
+        <v>91184</v>
       </c>
     </row>
     <row r="20">
@@ -1789,22 +1789,22 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>5114</v>
+        <v>5069</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>5282</v>
+        <v>5166</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>18701</v>
+        <v>18826</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>20013</v>
+        <v>19816</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>26929</v>
+        <v>27262</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>29283</v>
+        <v>28620</v>
       </c>
     </row>
     <row r="23">
@@ -1815,22 +1815,22 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>18726</v>
+        <v>18511</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>19716</v>
+        <v>19627</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>41605</v>
+        <v>41642</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>37556</v>
+        <v>36111</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>52024</v>
+        <v>54393</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>50510</v>
+        <v>50103</v>
       </c>
     </row>
     <row r="24">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>2866</v>
+        <v>2857</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>6528</v>
+        <v>5944</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>23385</v>
+        <v>23703</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>16658</v>
+        <v>16345</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>29248</v>
+        <v>28917</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>27380</v>
+        <v>27817</v>
       </c>
     </row>
     <row r="27">
@@ -1923,22 +1923,22 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>13627</v>
+        <v>12703</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>31207</v>
+        <v>29417</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>47719</v>
+        <v>48543</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>41110</v>
+        <v>40432</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>53860</v>
+        <v>55655</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>60590</v>
+        <v>59433</v>
       </c>
     </row>
     <row r="28">
@@ -2005,22 +2005,22 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>45978</v>
+        <v>48120</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>90335</v>
+        <v>89245</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>108320</v>
+        <v>108908</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>128823</v>
+        <v>129494</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>164918</v>
+        <v>164068</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>231456</v>
+        <v>231812</v>
       </c>
     </row>
     <row r="31">
@@ -2031,22 +2031,22 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>78564</v>
+        <v>78314</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>140688</v>
+        <v>138692</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>153959</v>
+        <v>154656</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>174661</v>
+        <v>175038</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>222342</v>
+        <v>220076</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>302096</v>
+        <v>298825</v>
       </c>
     </row>
     <row r="32">
